--- a/src/templateUsers.xlsx
+++ b/src/templateUsers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E4D42-9E83-FF40-A73E-86B1DF2C3B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2E990-5B65-F345-A12C-4AA6B8EDCACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40760" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,19 +110,19 @@
     <t>Id</t>
   </si>
   <si>
-    <t>RolesList_</t>
+    <t>RolesList</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginProviders_</t>
+    <t>LoginProviders</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RobotProvision_</t>
+    <t>RobotProvision</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NotificationSubscription_</t>
+    <t>NotificationSubscription</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,7 +194,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -209,7 +209,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -224,7 +224,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -242,10 +242,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -600,9 +600,9 @@
     <col min="24" max="24" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -613,82 +613,82 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="4" t="s">
